--- a/data/cv_data.xlsx
+++ b/data/cv_data.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruybal.s/Documents/SR/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE05A488-6312-774E-BC79-9757E0021235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542540B6-EB0F-514D-9FE0-614DA14B502D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" activeTab="8" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" activeTab="1" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="appointments" sheetId="1" r:id="rId1"/>
     <sheet name="awards" sheetId="2" r:id="rId2"/>
-    <sheet name="digital_tools" sheetId="3" r:id="rId3"/>
+    <sheet name="tools" sheetId="3" r:id="rId3"/>
     <sheet name="education" sheetId="4" r:id="rId4"/>
     <sheet name="leadership" sheetId="5" r:id="rId5"/>
     <sheet name="presentations" sheetId="6" r:id="rId6"/>
-    <sheet name="research_experience" sheetId="7" r:id="rId7"/>
+    <sheet name="research" sheetId="7" r:id="rId7"/>
     <sheet name="skills" sheetId="8" r:id="rId8"/>
-    <sheet name="teaching_supervision" sheetId="9" r:id="rId9"/>
+    <sheet name="teaching" sheetId="9" r:id="rId9"/>
     <sheet name="training" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="366">
   <si>
     <t>role</t>
   </si>
@@ -1116,6 +1116,30 @@
   </si>
   <si>
     <t>UOM subject: Linear and Logistic Regression</t>
+  </si>
+  <si>
+    <t>Ideas Jam Award</t>
+  </si>
+  <si>
+    <t>Oct 2020</t>
+  </si>
+  <si>
+    <t>Jul 2021</t>
+  </si>
+  <si>
+    <t>Jul 2021--Present</t>
+  </si>
+  <si>
+    <t>Member, Web-based applications working group</t>
+  </si>
+  <si>
+    <t>\href{https://youtu.be/utSVelCdcvU}{Panelist \faExternalLink}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panelist on the panel discussion "Lessons learned from COVID-19 variants" (Lecciones aprendidas con variantes COVID-19) hosted by USFQ and national newspaper El Universo </t>
+  </si>
+  <si>
+    <t>Awarded A\$10,000 as AI for the project: Superstars in STEM High School Program</t>
   </si>
 </sst>
 </file>
@@ -1159,12 +1183,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1748,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCD460E-1FF0-2C43-8A33-221816BDB936}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1859,16 +1885,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1876,138 +1902,152 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2021,7 +2061,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2251,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7B2305-B3BF-F54F-8F0E-438F4DA99A61}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2283,54 +2323,57 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
+      <c r="D2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>114</v>
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -2344,36 +2387,33 @@
       <c r="F4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
@@ -2382,59 +2422,56 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
         <v>124</v>
@@ -2442,73 +2479,73 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>178</v>
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
@@ -2517,222 +2554,268 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>146</v>
+        <v>179</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>189</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" t="s">
-        <v>169</v>
+        <v>75</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>171</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>172</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>173</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3111,7 +3194,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3684,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5338EAEC-67F8-9247-8A3F-9BAF40D7A39F}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/cv_data.xlsx
+++ b/data/cv_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruybal.s/Documents/SR/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542540B6-EB0F-514D-9FE0-614DA14B502D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A05DD-909E-E040-89E7-E0023DC1F719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" activeTab="1" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="27640" windowHeight="15760" activeTab="6" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="appointments" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="teaching" sheetId="9" r:id="rId9"/>
     <sheet name="training" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="398">
   <si>
     <t>role</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Australian Centre of Research Excellence in Malaria Elimination \href{https://www.acreme.edu.au}{\faExternalLink}</t>
   </si>
   <si>
-    <t>Postdoctoral Scientist, \href{https://www.wehi.edu.au/people/ivo-mueller}{Population Health and Immunity Division \faExternalLink}</t>
-  </si>
-  <si>
     <t>Walter and Eliza Hall Institute of Medical Research</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Australian Centre for Research Excellence in Malaria Elimination</t>
   </si>
   <si>
-    <t>Awarded A\$15,379.98 as AI for the collaborative project: Artificial Intelligence-based drug resistance screening of malaria parasites using ‚ÄòRead Until‚Äô</t>
-  </si>
-  <si>
     <t>Awarded A\$14,061 as AI for the collaborative project: Methodological comparison of \textit{P. vivax} genotyping approaches for molecular surveillance within the ACREME network</t>
   </si>
   <si>
@@ -752,9 +746,6 @@
     <t>Visiting Scientist, Institute of Microbiology</t>
   </si>
   <si>
-    <t>Oct 2021--Present</t>
-  </si>
-  <si>
     <t>Provide support for the coordination and data analysis of a population-based cohort study in Quito to understand vaccine and infection-induced immunity to SARS-CoV-2</t>
   </si>
   <si>
@@ -764,9 +755,6 @@
     <t>Postdoctoral Scientist, Population Health and Immunity Division, Mueller and Robinson Labs</t>
   </si>
   <si>
-    <t>Feb 2019--Present</t>
-  </si>
-  <si>
     <t>My postdoc work involves the application of a suite of genomic epidemiology approaches to better understand residual and resurgent malaria transmission dynamics in the Asia-Pacific and Americas regions</t>
   </si>
   <si>
@@ -776,9 +764,6 @@
     <t>Apply novel genotyping and molecular diagnostic techniques to samples collected from several large-scale epidemiological field studies in Asia-Pacific to identify and track malaria infections over space and time and within individuals. Downstream analysis involves relating genetic data to epidemiological data to better understand spatiotemporal infection dynamics and risk factors</t>
   </si>
   <si>
-    <t>Outputs: Co-author publications(2), Honors and awards/grants (9), Student/staff supervision (5) PNG</t>
-  </si>
-  <si>
     <t>Research Fellow in Malaria Population Genetics, Day Lab</t>
   </si>
   <si>
@@ -1133,20 +1118,159 @@
     <t>Member, Web-based applications working group</t>
   </si>
   <si>
-    <t>\href{https://youtu.be/utSVelCdcvU}{Panelist \faExternalLink}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Panelist on the panel discussion "Lessons learned from COVID-19 variants" (Lecciones aprendidas con variantes COVID-19) hosted by USFQ and national newspaper El Universo </t>
   </si>
   <si>
     <t>Awarded A\$10,000 as AI for the project: Superstars in STEM High School Program</t>
+  </si>
+  <si>
+    <t>Presented at the R-Ladies Melbourne meet-up, \href{https://shaziaruybal.github.io/automate-cv-rmd/}{slides \faExternalLink}</t>
+  </si>
+  <si>
+    <t>Automate your CV: easy as 1, 2, knit!</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>March 2022</t>
+  </si>
+  <si>
+    <t>WEHI/Burnet/PNGIMR</t>
+  </si>
+  <si>
+    <t>Awarded A\$15,379.98 as AI for the collaborative project: Artificial Intelligence-based drug resistance screening of malaria parasites using Read Until</t>
+  </si>
+  <si>
+    <t>\href{https://shaziaruybal.github.io/covidClassifyR-workshop}{Shiny application workshop leader \faExternalLink}</t>
+  </si>
+  <si>
+    <t>Led a four-day workshop on how to use the covidClassifyR Shiny web application, designed for researchers from Papua New Guinea Institute of Medical Research and partner institutions \href{https://shaziaruybal.github.io/covidClassifyR-workshop}{(Materials here \faExternalLink)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outputs: Co-author publications(2), Honors and awards/grants (9), Student/staff supervision (5) </t>
+  </si>
+  <si>
+    <t>Sep 2022</t>
+  </si>
+  <si>
+    <t>Feb 2019--Sep 2022</t>
+  </si>
+  <si>
+    <t>Feb 2022</t>
+  </si>
+  <si>
+    <t>Oct 2021--Feb 2022</t>
+  </si>
+  <si>
+    <t>Research Associate</t>
+  </si>
+  <si>
+    <t>London, UK</t>
+  </si>
+  <si>
+    <t>Oct 2022</t>
+  </si>
+  <si>
+    <t>Oct 2022--Present</t>
+  </si>
+  <si>
+    <t>\href{https://youtu.be/9TOPklkF5ZA}{Panelist \faExternalLink}</t>
+  </si>
+  <si>
+    <t>Postdoctoral Research Fellow (now Honorary), \href{https://www.wehi.edu.au/people/ivo-mueller}{Population Health and Immunity Division \faExternalLink}</t>
+  </si>
+  <si>
+    <t>\href{https://mrc-ide.github.io/SIMPLEGEN}{SIMPLEGEN \faExternalLink}</t>
+  </si>
+  <si>
+    <t>Bob Verity, Shazia Ruybal-Pesántez</t>
+  </si>
+  <si>
+    <t>This R package is being developed to simulate malaria genetic epidemiology to explore the
+“power” of genomic surveillance sampling designs</t>
+  </si>
+  <si>
+    <t>MRC Centre for Global Infectious Disease Analysis, Imperial College London</t>
+  </si>
+  <si>
+    <t>Research Associate, Department of Infectious Disease Epidemiology</t>
+  </si>
+  <si>
+    <t>Addis Ababa, Ethiopia</t>
+  </si>
+  <si>
+    <t>Aug 2022</t>
+  </si>
+  <si>
+    <t>Co-organized a four-day workshop for African researchers on how to use R-based data analysis tools for malaria genomics</t>
+  </si>
+  <si>
+    <t>\href{https://github.com/mrc-ide/AMMS2022}{Applied Malaria Molecular Surveillance workshop Co-organizer \faExternalLink}</t>
+  </si>
+  <si>
+    <t>\href{https://shiny.dide.ic.ac.uk/DRpower-app}{DRPower Shiny app \faExternalLink}</t>
+  </si>
+  <si>
+    <t>This Shiny web application is being developed to simplify the design of studies that
+monitor rapid diagnostic tests effectiveness for malaria diagnosis in the field</t>
+  </si>
+  <si>
+    <t>Develop novel methods and computational tools to analyse genomic data to
+support malaria molecular surveillance</t>
+  </si>
+  <si>
+    <t>Crea tu dashboard en R: Visualizando datos del mundial FIFA</t>
+  </si>
+  <si>
+    <t>Ethiopia Public Health Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented at Brown Bag Seminar InnovaLab at Institute of Tropical Medicine/University Cayetano Heredia Peru for the MSc program, \href{https://shaziaruybal.github.io/dashboard-mundialFIFA/}{slides \faExternalLink} </t>
+  </si>
+  <si>
+    <t>Freelance</t>
+  </si>
+  <si>
+    <t>Mar 2020--Dec 2020</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve">Consulted for the Ministry of Foreign Affairs and Migration and National COVID- 19 Emergency Response Committee providing internal analyses on case/testing trends and epidemiological modelling (importation dynamics, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reff estimation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Consulted for the Ecuadorian Red Cross National Blood Bank to establish SARS-CoV-2 sero-surveillance as part of the COVID-19 emergency response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1161,6 +1285,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF424242"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1183,14 +1324,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,126 +1651,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E1B3CC-1472-8E44-9C15-09D3FC2792ED}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1636,34 +1823,34 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2">
         <v>2021</v>
@@ -1671,13 +1858,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3">
         <v>2021</v>
@@ -1685,10 +1872,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1699,13 +1886,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D5">
         <v>2017</v>
@@ -1713,10 +1900,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1727,10 +1914,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1741,10 +1928,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1755,10 +1942,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1776,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCD460E-1FF0-2C43-8A33-221816BDB936}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1786,269 +1973,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" t="s">
         <v>359</v>
-      </c>
-      <c r="D8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
         <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2058,96 +2245,126 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552DEBF6-EB56-4F41-8113-EC8156795D6C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D8" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2166,122 +2383,122 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>2011</v>
       </c>
       <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>2012</v>
       </c>
       <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
         <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>2012</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
         <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>2012</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>2018</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <v>2018</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2291,532 +2508,578 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7B2305-B3BF-F54F-8F0E-438F4DA99A61}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>66</v>
+      <c r="A2" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>360</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>176</v>
+        <v>355</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" t="s">
-        <v>124</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>178</v>
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>146</v>
+        <v>177</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>75</v>
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" t="s">
-        <v>169</v>
+        <v>73</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
         <v>171</v>
       </c>
-      <c r="B23" t="s">
+      <c r="G25" t="s">
         <v>172</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2826,306 +3089,312 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8243C-FE0E-ED41-84A9-46B817DC41A8}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="79.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4" t="s">
         <v>195</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>196</v>
       </c>
-      <c r="C2">
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5">
         <v>2021</v>
       </c>
-      <c r="D2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>198</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>199</v>
       </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" t="s">
         <v>200</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>201</v>
       </c>
-      <c r="C4">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5">
-        <v>2020</v>
-      </c>
-      <c r="D5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>204</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>2019</v>
       </c>
-      <c r="D6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>205</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>206</v>
-      </c>
-      <c r="C7">
-        <v>2019</v>
-      </c>
-      <c r="D7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8">
-        <v>2018</v>
-      </c>
-      <c r="D8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9">
-        <v>2018</v>
-      </c>
-      <c r="D9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" t="s">
-        <v>212</v>
       </c>
       <c r="C10">
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C12">
         <v>2018</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C15">
         <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C16">
         <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C17">
         <v>2017</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C19">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C20">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C21">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3133,55 +3402,83 @@
         <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C23">
         <v>2015</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C24">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C25">
+        <v>2015</v>
+      </c>
+      <c r="D25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26">
         <v>2014</v>
       </c>
-      <c r="D25" t="s">
-        <v>202</v>
+      <c r="D26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27">
+        <v>2014</v>
+      </c>
+      <c r="D27" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3191,63 +3488,66 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2522634-3670-EB4F-A94A-C1193288D818}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" t="s">
-        <v>237</v>
+      <c r="F2" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3256,407 +3556,476 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+        <v>267</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+        <v>267</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="G4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" t="s">
-        <v>242</v>
+        <v>395</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" t="s">
-        <v>243</v>
+        <v>395</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" t="s">
-        <v>244</v>
+        <v>370</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>273</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>273</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>273</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G14" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="F15" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="F16" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G18" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>279</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>271</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3675,87 +4044,87 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>283</v>
+      <c r="A1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3768,37 +4137,37 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3807,407 +4176,407 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44531</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" t="s">
         <v>307</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" t="s">
         <v>308</v>
-      </c>
-      <c r="G6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G11" t="s">
         <v>317</v>
-      </c>
-      <c r="B11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F11" t="s">
-        <v>320</v>
-      </c>
-      <c r="G11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G13" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="3">
-        <v>43070</v>
+        <v>334</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="G14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G15" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F17" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G17" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F18" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G18" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv_data.xlsx
+++ b/data/cv_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruybal.s/Documents/SR/cv/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/sruybal_ic_ac_uk/Documents/postdoc/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A05DD-909E-E040-89E7-E0023DC1F719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{657A05DD-909E-E040-89E7-E0023DC1F719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DAC3ACA-526A-1A4C-AA50-7AC96049D208}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="27640" windowHeight="15760" activeTab="6" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
+    <workbookView xWindow="580" yWindow="760" windowWidth="27640" windowHeight="15760" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="appointments" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="412">
   <si>
     <t>role</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Australian Centre for Control \&amp; Elimination of Neglected Tropical Diseases</t>
   </si>
   <si>
-    <t>Oct 2020, Jul 2021</t>
-  </si>
-  <si>
-    <t>Awarded a total of A\$100,000 as AI for the collaborative project: Burden of neglected tropical diseases on the north coast of Papua New Guinea</t>
-  </si>
-  <si>
     <t>Awarded A\$14,400 as AI for the collaborative project: Validating molecular and serological tools for detecting hidden reservoirs of \textit{Plasmodium} infections in Papua New Guinea</t>
   </si>
   <si>
@@ -380,9 +374,6 @@
     <t>International Conference on \textit{Plasmodium vivax} research</t>
   </si>
   <si>
-    <t>Aug 2021--Present</t>
-  </si>
-  <si>
     <t>President and Co-organizer</t>
   </si>
   <si>
@@ -398,9 +389,6 @@
     <t>CareerTrackers Young Indigenous Women in STEM Academy</t>
   </si>
   <si>
-    <t>Dec 2020--Present</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
@@ -476,9 +464,6 @@
     <t xml:space="preserve">Walter and Eliza Hall Institute </t>
   </si>
   <si>
-    <t>Jun 2019--Present</t>
-  </si>
-  <si>
     <t>The RC aims to contribute towards reconciliation by working towards ‘closing the gap’ in life expectancy, disease incidence, and mortality for Aboriginal and Torres Strait Islander Australians</t>
   </si>
   <si>
@@ -755,15 +740,6 @@
     <t>Postdoctoral Scientist, Population Health and Immunity Division, Mueller and Robinson Labs</t>
   </si>
   <si>
-    <t>My postdoc work involves the application of a suite of genomic epidemiology approaches to better understand residual and resurgent malaria transmission dynamics in the Asia-Pacific and Americas regions</t>
-  </si>
-  <si>
-    <t>Support the field implementation and lead the overall analysis of a 12-month longitudinal cohort study in Papua New Guinea. The aim of this study is to understand the spatiotemporal risk factors for malaria infections in 1000 individuals of all ages residing across four villages on the North Coast of PNG.</t>
-  </si>
-  <si>
-    <t>Apply novel genotyping and molecular diagnostic techniques to samples collected from several large-scale epidemiological field studies in Asia-Pacific to identify and track malaria infections over space and time and within individuals. Downstream analysis involves relating genetic data to epidemiological data to better understand spatiotemporal infection dynamics and risk factors</t>
-  </si>
-  <si>
     <t>Research Fellow in Malaria Population Genetics, Day Lab</t>
   </si>
   <si>
@@ -974,9 +950,6 @@
     <t>Nossal Institute for Global Health, University of Melbourne</t>
   </si>
   <si>
-    <t>Oct 2019--Present</t>
-  </si>
-  <si>
     <t>Guest lecturer for the Nossal Institute for Global Health Masters of Public Health on Malaria and Child Health (POPH90086: Global Child Health)</t>
   </si>
   <si>
@@ -1110,9 +1083,6 @@
   </si>
   <si>
     <t>Jul 2021</t>
-  </si>
-  <si>
-    <t>Jul 2021--Present</t>
   </si>
   <si>
     <t>Member, Web-based applications working group</t>
@@ -1214,10 +1184,6 @@
   <si>
     <t>This Shiny web application is being developed to simplify the design of studies that
 monitor rapid diagnostic tests effectiveness for malaria diagnosis in the field</t>
-  </si>
-  <si>
-    <t>Develop novel methods and computational tools to analyse genomic data to
-support malaria molecular surveillance</t>
   </si>
   <si>
     <t>Crea tu dashboard en R: Visualizando datos del mundial FIFA</t>
@@ -1265,12 +1231,87 @@
   <si>
     <t>Consulted for the Ecuadorian Red Cross National Blood Bank to establish SARS-CoV-2 sero-surveillance as part of the COVID-19 emergency response</t>
   </si>
+  <si>
+    <t>Applied Epi</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Jul 2023--Present</t>
+  </si>
+  <si>
+    <t>Jul 2023</t>
+  </si>
+  <si>
+    <t>Part-time Instructor</t>
+  </si>
+  <si>
+    <t>Provide training courses in R for data analysis, visualization and advanced topics to epidemiologists and public health officials</t>
+  </si>
+  <si>
+    <t>Mar 2023</t>
+  </si>
+  <si>
+    <t>Mar 2023--Present</t>
+  </si>
+  <si>
+    <t>Co-supervise a Medical Biology PhD student on SARS-CoV-2 genomics and sero-epidemiology</t>
+  </si>
+  <si>
+    <t>My postdoc work involved the application of a suite of genomic epidemiology approaches to better understand residual and resurgent malaria transmission dynamics in the Asia-Pacific and Americas regions</t>
+  </si>
+  <si>
+    <t>Supported the field implementation and lead the overall analysis of a 12-month longitudinal cohort study in Papua New Guinea. The aim of this study is to understand the spatiotemporal risk factors for malaria infections in 1000 individuals of all ages residing across four villages on the North Coast of PNG.</t>
+  </si>
+  <si>
+    <t>Applied novel genotyping and molecular diagnostic techniques to samples collected from several large-scale epidemiological field studies in Asia-Pacific to identify and track malaria infections over space and time and within individuals. Downstream analysis involves relating genetic data to epidemiological data to better understand spatiotemporal infection dynamics and risk factors</t>
+  </si>
+  <si>
+    <t>Apply new analytical approaches to analyse genomic epidemiological data from a longitudinal study in Tanzania aiming to understand imported malaria transmission dynamics led by collaborators at UNC Chapel Hill in the US and MUHAS/ZAMEP in Tanzania</t>
+  </si>
+  <si>
+    <t>Develop novel methods and computational tools to analyse genomic data to support malaria molecular surveillance</t>
+  </si>
+  <si>
+    <t>Dec 2020--Sep 2022</t>
+  </si>
+  <si>
+    <t>Jul 2021--Sep 2022</t>
+  </si>
+  <si>
+    <t>Aug 2021--Sep 2022</t>
+  </si>
+  <si>
+    <t>Mar 2022</t>
+  </si>
+  <si>
+    <t>Aug 2021--Mar 2022</t>
+  </si>
+  <si>
+    <t>Jun 2019--Sep 2022</t>
+  </si>
+  <si>
+    <t>Jul 2019--Sep 2022</t>
+  </si>
+  <si>
+    <t>Oct 2019--Sep 2022</t>
+  </si>
+  <si>
+    <t>Awarded a total of A\$100,000 (Oct 2020 and Jul 2021) as AI for the collaborative project: Burden of neglected tropical diseases on the north coast of Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>Short course: Modelling the Epidemiology  \&amp; Control of Infectious Diseases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1303,6 +1344,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1324,19 +1372,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1653,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E1B3CC-1472-8E44-9C15-09D3FC2792ED}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1677,35 +1722,35 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>195</v>
+      <c r="G2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1726,7 +1771,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1743,11 +1788,11 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1764,16 +1809,16 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1789,7 +1834,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1810,7 +1855,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2637CF-4597-3449-ABB6-A2E34950A21B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1830,7 +1875,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1844,27 +1889,27 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>364</v>
       </c>
       <c r="D2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>2021</v>
@@ -1872,52 +1917,52 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D4">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="D6">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1928,10 +1973,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1942,15 +1987,29 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
         <v>2015</v>
       </c>
     </row>
@@ -1964,7 +2023,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1994,10 +2053,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2008,7 +2067,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -2022,7 +2081,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -2036,7 +2095,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -2050,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
@@ -2064,7 +2123,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -2072,16 +2131,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2092,10 +2151,10 @@
         <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2106,136 +2165,136 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2248,17 +2307,17 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
@@ -2269,102 +2328,102 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>389</v>
+      <c r="A2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>379</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>381</v>
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2443,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
@@ -2401,75 +2460,75 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>2011</v>
       </c>
       <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>2012</v>
       </c>
       <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>2012</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
         <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>2012</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>2018</v>
@@ -2481,12 +2540,12 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -2498,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2570,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2533,553 +2592,553 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>386</v>
+      <c r="A2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>358</v>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>404</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="F7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" t="s">
         <v>112</v>
-      </c>
-      <c r="G7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>401</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>169</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="F10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G10" t="s">
         <v>118</v>
-      </c>
-      <c r="G10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>407</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>406</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3102,7 +3161,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3111,374 +3170,374 @@
         <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2">
         <v>2022</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>361</v>
+      <c r="A3" t="s">
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="4">
+        <v>350</v>
+      </c>
+      <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>195</v>
+      <c r="D3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4">
         <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>2021</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C8">
         <v>2019</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C9">
         <v>2019</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C10">
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C12">
         <v>2018</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C13">
         <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C14">
         <v>2018</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C15">
         <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C16">
         <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C17">
         <v>2017</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C18">
         <v>2017</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C19">
         <v>2017</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C20">
         <v>2016</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C21">
         <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C23">
         <v>2015</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" t="s">
         <v>222</v>
-      </c>
-      <c r="B24" t="s">
-        <v>227</v>
       </c>
       <c r="C24">
         <v>2015</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C25">
         <v>2015</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C26">
         <v>2014</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C27">
         <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3488,10 +3547,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2522634-3670-EB4F-A94A-C1193288D818}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3516,176 +3575,176 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>376</v>
+      <c r="F2" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>364</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F3" t="s">
-        <v>372</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>364</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F4" t="s">
-        <v>372</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>174</v>
+        <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>396</v>
+        <v>362</v>
+      </c>
+      <c r="G5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>174</v>
+        <v>361</v>
       </c>
       <c r="F6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>397</v>
+        <v>362</v>
+      </c>
+      <c r="G6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>369</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>237</v>
+        <v>384</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>383</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>369</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>370</v>
-      </c>
-      <c r="G8" t="s">
-        <v>238</v>
+        <v>384</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -3697,18 +3756,18 @@
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F9" t="s">
-        <v>370</v>
-      </c>
-      <c r="G9" t="s">
-        <v>239</v>
+        <v>360</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -3720,64 +3779,64 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F10" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G10" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -3786,136 +3845,136 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G13" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G14" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -3924,21 +3983,21 @@
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G19" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -3947,85 +4006,131 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G20" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F23" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E24" s="2" t="s">
         <v>266</v>
+      </c>
+      <c r="F24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4045,86 +4150,86 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4134,10 +4239,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5338EAEC-67F8-9247-8A3F-9BAF40D7A39F}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4159,7 +4264,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -4167,260 +4272,260 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>393</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>394</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>303</v>
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="G7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="G8" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F11" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G12" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -4429,67 +4534,67 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>334</v>
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>310</v>
       </c>
       <c r="G14" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F15" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="G15" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -4498,21 +4603,21 @@
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G16" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -4521,62 +4626,85 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>335</v>
+        <v>178</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F18" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G18" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G19" t="s">
-        <v>333</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
